--- a/data/features/extracted_features.xlsx
+++ b/data/features/extracted_features.xlsx
@@ -3790,16 +3790,16 @@
     <t>v3.0</t>
   </si>
   <si>
-    <t>1.18.3</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
-    <t>0.5.2</t>
-  </si>
-  <si>
-    <t>3.6.4</t>
+    <t>1.18.5</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>3.7.1</t>
   </si>
   <si>
     <t>{'minimumROIDimensions': 2, 'minimumROISize': None, 'normalize': False, 'normalizeScale': 1, 'removeOutliers': None, 'resampledPixelSpacing': [1, 1, 1], 'interpolator': 'sitkBSpline', 'preCrop': False, 'padDistance': 10, 'distances': [1], 'force2D': False, 'force2Ddimension': 0, 'resegmentRange': None, 'label': 1, 'additionalInfo': True, 'binWidth': 25, 'voxelArrayShift': 1000}</t>
